--- a/feature/add-created-date/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/add-created-date/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T07:24:56+00:00</t>
+    <t>2025-06-30T07:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
